--- a/doc/template/nak_ku-3.xlsx
+++ b/doc/template/nak_ku-3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfk3\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Музмарт\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5900" tabRatio="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="0"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -381,13 +381,13 @@
     <t>{year} года</t>
   </si>
   <si>
-    <t>ООО "Кайрос", ИНН 7203265990, 625033, Тюменская обл, г. Тюмень, ул. Михаила Сперанского д.17, тел.: 8(3452) 589-564, 8 (800) 200-26-78, р/с 40702810000020012036, в банке Филиал № 6602 Банка ВТБ (ПАО) в г. Екатеринбурге, БИК 046577501, к/с 30101810165770000501</t>
+    <t>ООО "Кайрос", ИНН 7203265990, 625000, Тюменская обл, г. Тюмень, ул. Михаила Сперанского д.17, тел.: 8(3452) 589-564, 8 (800) 200-26-78, р/с 40702810200020012036, в банке Филиал "ЦЕНТРАЛЬНЫЙ" Банка ВТБ ПАО Г. МОСКВА, БИК 044525411, к/с 30101810145250000411</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1528,54 +1528,54 @@
   </sheetPr>
   <dimension ref="A1:AN60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:AH12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AS12" sqref="AS12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="2.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="2" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="0.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="0.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="7.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.77734375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.5" style="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="0.44140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="1.44140625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="2.44140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="1.44140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="0.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="1.5" style="1" customWidth="1"/>
+    <col min="19" max="20" width="2.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="1.5" style="1" customWidth="1"/>
     <col min="22" max="22" width="7.6640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="2.44140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="2.5" style="1" customWidth="1"/>
     <col min="24" max="24" width="4.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="8.77734375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="6.109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="1.77734375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="4.44140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="8.83203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="1.83203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5" style="1" customWidth="1"/>
     <col min="29" max="29" width="0.6640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="1.44140625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="1.109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="1.5" style="1" customWidth="1"/>
+    <col min="31" max="31" width="1.1640625" style="1" customWidth="1"/>
     <col min="32" max="32" width="7" style="1" customWidth="1"/>
     <col min="33" max="33" width="2" style="1" customWidth="1"/>
     <col min="34" max="34" width="4.33203125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="2.77734375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="2.83203125" style="1" customWidth="1"/>
     <col min="36" max="36" width="6" style="1" customWidth="1"/>
     <col min="37" max="37" width="2" style="1" customWidth="1"/>
     <col min="38" max="38" width="12.6640625" style="1" customWidth="1"/>
-    <col min="39" max="39" width="0.109375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="0.44140625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="0.1640625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="0.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
         <v>0</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>330212</v>
       </c>
     </row>
-    <row r="4" spans="1:38" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="114"/>
       <c r="C4" s="114"/>
       <c r="D4" s="114"/>
@@ -1705,7 +1705,7 @@
         <v>92225735</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="24" t="s">
         <v>3</v>
       </c>
@@ -1774,7 +1774,7 @@
       <c r="AH6" s="120"/>
       <c r="AL6" s="119"/>
     </row>
-    <row r="7" spans="1:38" s="1" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" s="1" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="24" t="s">
         <v>4</v>
       </c>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="AL7" s="25"/>
     </row>
-    <row r="8" spans="1:38" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" s="1" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="121" t="s">
         <v>6</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="24" t="s">
         <v>7</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>92225735</v>
       </c>
     </row>
-    <row r="10" spans="1:38" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" s="1" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="22"/>
       <c r="C10" s="22" t="s">
         <v>8</v>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="AL10" s="113"/>
     </row>
-    <row r="11" spans="1:38" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="24" t="s">
         <v>7</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:38" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" s="1" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="22"/>
       <c r="C12" s="22" t="s">
         <v>9</v>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="AL12" s="113"/>
     </row>
-    <row r="13" spans="1:38" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D13" s="24" t="s">
         <v>7</v>
       </c>
@@ -2048,7 +2048,7 @@
       <c r="AK13" s="109"/>
       <c r="AL13" s="113"/>
     </row>
-    <row r="14" spans="1:38" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="22"/>
       <c r="C14" s="22" t="s">
         <v>11</v>
@@ -2090,7 +2090,7 @@
       <c r="AK14" s="109"/>
       <c r="AL14" s="113"/>
     </row>
-    <row r="15" spans="1:38" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" s="24" t="s">
         <v>12</v>
       </c>
@@ -2125,7 +2125,7 @@
       <c r="AK15" s="109"/>
       <c r="AL15" s="23"/>
     </row>
-    <row r="16" spans="1:38" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K16" s="110" t="s">
         <v>14</v>
       </c>
@@ -2151,7 +2151,7 @@
       <c r="AK16" s="109"/>
       <c r="AL16" s="23"/>
     </row>
-    <row r="17" spans="1:39" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
@@ -2179,7 +2179,7 @@
       <c r="AK17" s="109"/>
       <c r="AL17" s="23"/>
     </row>
-    <row r="18" spans="1:39" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AJ18" s="22"/>
       <c r="AK18" s="22" t="s">
         <v>17</v>
@@ -2193,7 +2193,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:39" s="4" customFormat="1" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:39" s="4" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="99" t="s">
         <v>19</v>
@@ -2256,7 +2256,7 @@
       <c r="AL20" s="99"/>
       <c r="AM20" s="99"/>
     </row>
-    <row r="21" spans="1:39" s="4" customFormat="1" ht="43.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:39" s="4" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="99"/>
       <c r="C21" s="99" t="s">
@@ -2384,7 +2384,7 @@
       <c r="AL22" s="93"/>
       <c r="AM22" s="93"/>
     </row>
-    <row r="23" spans="1:39" s="50" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" s="50" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
       <c r="B23" s="53" t="s">
         <v>93</v>
@@ -2445,7 +2445,7 @@
       <c r="AL23" s="86"/>
       <c r="AM23" s="86"/>
     </row>
-    <row r="24" spans="1:39" s="1" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:39" s="1" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -2498,7 +2498,7 @@
       <c r="AL24" s="108"/>
       <c r="AM24" s="108"/>
     </row>
-    <row r="25" spans="1:39" s="1" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:39" s="1" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -2546,7 +2546,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:39" s="4" customFormat="1" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:39" s="4" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="99" t="s">
         <v>19</v>
@@ -2609,7 +2609,7 @@
       <c r="AL27" s="99"/>
       <c r="AM27" s="99"/>
     </row>
-    <row r="28" spans="1:39" s="4" customFormat="1" ht="43.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:39" s="4" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="99"/>
       <c r="C28" s="99" t="s">
@@ -2737,7 +2737,7 @@
       <c r="AL29" s="93"/>
       <c r="AM29" s="93"/>
     </row>
-    <row r="30" spans="1:39" s="50" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" s="50" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52"/>
       <c r="B30" s="53" t="s">
         <v>94</v>
@@ -2798,7 +2798,7 @@
       <c r="AL30" s="86"/>
       <c r="AM30" s="86"/>
     </row>
-    <row r="31" spans="1:39" s="1" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:39" s="1" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -2851,7 +2851,7 @@
       <c r="AL31" s="108"/>
       <c r="AM31" s="108"/>
     </row>
-    <row r="32" spans="1:39" s="1" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:39" s="1" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -2899,7 +2899,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:40" s="4" customFormat="1" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40" s="4" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="99" t="s">
         <v>19</v>
@@ -2962,7 +2962,7 @@
       <c r="AL34" s="99"/>
       <c r="AM34" s="99"/>
     </row>
-    <row r="35" spans="1:40" s="4" customFormat="1" ht="43.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40" s="4" customFormat="1" ht="43.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="99"/>
       <c r="C35" s="99" t="s">
@@ -3090,7 +3090,7 @@
       <c r="AL36" s="93"/>
       <c r="AM36" s="93"/>
     </row>
-    <row r="37" spans="1:40" s="50" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" s="50" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="52"/>
       <c r="B37" s="53" t="s">
         <v>95</v>
@@ -3151,7 +3151,7 @@
       <c r="AL37" s="86"/>
       <c r="AM37" s="86"/>
     </row>
-    <row r="38" spans="1:40" ht="11.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12"/>
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
@@ -3204,7 +3204,7 @@
       <c r="AL38" s="91"/>
       <c r="AM38" s="91"/>
     </row>
-    <row r="39" spans="1:40" ht="11.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
       <c r="N39" s="36"/>
       <c r="O39" s="36"/>
@@ -3264,7 +3264,7 @@
       <c r="U40" s="21"/>
       <c r="V40" s="21"/>
     </row>
-    <row r="41" spans="1:40" s="1" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" s="1" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E41" s="1" t="s">
         <v>44</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:40" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F42" s="24" t="s">
         <v>46</v>
       </c>
@@ -3333,7 +3333,7 @@
       <c r="AM43" s="71"/>
       <c r="AN43" s="72"/>
     </row>
-    <row r="44" spans="1:40" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F44" s="78"/>
       <c r="G44" s="78"/>
       <c r="H44" s="78"/>
@@ -3379,7 +3379,7 @@
       <c r="AM45" s="71"/>
       <c r="AN45" s="72"/>
     </row>
-    <row r="46" spans="1:40" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F46" s="76" t="s">
         <v>46</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:40" s="1" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:40" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="1:40" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>78</v>
@@ -3431,7 +3431,7 @@
       <c r="I49" s="76"/>
       <c r="S49" s="43"/>
     </row>
-    <row r="50" spans="1:40" s="1" customFormat="1" ht="10.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" s="1" customFormat="1" ht="10.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="17" t="s">
         <v>51</v>
       </c>
@@ -3461,7 +3461,7 @@
       <c r="AM50" s="21"/>
       <c r="AN50" s="21"/>
     </row>
-    <row r="51" spans="1:40" ht="11.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51" s="80" t="s">
         <v>79</v>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="Z51" s="24"/>
     </row>
-    <row r="52" spans="1:40" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="76" t="s">
         <v>46</v>
       </c>
@@ -3523,7 +3523,7 @@
       <c r="AM52" s="21"/>
       <c r="AN52" s="21"/>
     </row>
-    <row r="53" spans="1:40" s="1" customFormat="1" ht="22.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40" s="1" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>54</v>
       </c>
@@ -3583,7 +3583,7 @@
       <c r="R54" s="75"/>
       <c r="S54" s="75"/>
     </row>
-    <row r="55" spans="1:40" s="1" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" s="1" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="17" t="s">
         <v>60</v>
       </c>
@@ -3621,7 +3621,7 @@
       <c r="AM55" s="21"/>
       <c r="AN55" s="21"/>
     </row>
-    <row r="56" spans="1:40" ht="11.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="G56" s="24" t="s">
         <v>58</v>
@@ -3660,7 +3660,7 @@
       <c r="AM56" s="76"/>
       <c r="AN56" s="76"/>
     </row>
-    <row r="57" spans="1:40" s="1" customFormat="1" ht="11.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40" s="1" customFormat="1" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>62</v>
       </c>
@@ -3696,7 +3696,7 @@
       <c r="AM57" s="21"/>
       <c r="AN57" s="21"/>
     </row>
-    <row r="58" spans="1:40" ht="11.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58"/>
       <c r="E58" s="47" t="s">
         <v>57</v>
@@ -3742,10 +3742,10 @@
       <c r="AM58" s="76"/>
       <c r="AN58" s="76"/>
     </row>
-    <row r="59" spans="1:40" s="1" customFormat="1" ht="5.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S59" s="43"/>
     </row>
-    <row r="60" spans="1:40" s="1" customFormat="1" ht="11.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" s="1" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="36"/>
       <c r="C60" s="36"/>
       <c r="D60" s="36" t="s">
